--- a/src/test/resources/excel/testData.xlsx
+++ b/src/test/resources/excel/testData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91733\git\SeleniumMaven_MTT_1\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91733\eclipse-workspace\DataDrivenApproach\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92FCF99-8D15-49F6-BAE5-EA20EC7BD57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BFBA75-46CB-4BCE-BDA2-D50D25B533E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="doLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="doUserReg" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -33,16 +34,34 @@
     <t>Password</t>
   </si>
   <si>
-    <t>user1</t>
+    <t>username1</t>
   </si>
   <si>
     <t>password1</t>
   </si>
   <si>
-    <t>user2</t>
+    <t>username2</t>
   </si>
   <si>
     <t>password2</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>bhagya</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>selenium</t>
+  </si>
+  <si>
+    <t>java</t>
   </si>
 </sst>
 </file>
@@ -387,9 +406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -420,4 +437,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15BB41C-182A-4775-8A9E-ACC734544044}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/excel/testData.xlsx
+++ b/src/test/resources/excel/testData.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91733\eclipse-workspace\DataDrivenApproach\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BFBA75-46CB-4BCE-BDA2-D50D25B533E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE6231D-E706-4945-B848-6E196CD25E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="doLogin" sheetId="1" r:id="rId1"/>
     <sheet name="doUserReg" sheetId="2" r:id="rId2"/>
+    <sheet name="addCustomer" sheetId="3" r:id="rId3"/>
+    <sheet name="addAccount" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Username</t>
   </si>
@@ -62,6 +64,36 @@
   </si>
   <si>
     <t>java</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>sindhu</t>
+  </si>
+  <si>
+    <t>suganya</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>Pound</t>
+  </si>
+  <si>
+    <t>Rupee</t>
   </si>
 </sst>
 </file>
@@ -443,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15BB41C-182A-4775-8A9E-ACC734544044}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -480,4 +512,122 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9E98C-2F3E-4ADE-89BA-5DEA08F7DAA5}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2">
+        <v>344567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>568890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2">
+        <v>678990</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3E48D5-4AF8-42C7-A64F-136C571C0177}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>